--- a/bot/tahrirlangan_rasxod.xlsx
+++ b/bot/tahrirlangan_rasxod.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -486,11 +486,11 @@
     <row r="2" ht="21" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>falcon-8523441</t>
+          <t>falcon-6 963</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -501,11 +501,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>falcon-8523439</t>
+          <t>falcon-6 968</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -516,11 +516,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>falcon-8523440</t>
+          <t>falcon-6 969</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>216</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -531,11 +531,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>falcon-2025352478</t>
+          <t>falcon-6 1151</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -546,11 +546,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>falcon-2025352479</t>
+          <t>falcon-622223736</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -561,11 +561,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>falcon-2025352480</t>
+          <t>falcon-622223738</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -576,13 +576,808 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>falcon-6 1027  /  6876543211562  /  6876543211562</t>
+          <t>falcon-5879187</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>falcon-5879188</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>falcon-20240519/6948749002357</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>200</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>falcon-5879183</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>falcon-5879185/6421000000007</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>falcon-5879186/6421000000007</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>falcon-6 1581</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>falcon-6 1579</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>36</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>falcon-622224126</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>30</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>falcon-5879171/6972518412528</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>30</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>falcon-5879172/6972518412535</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>falcon-5879174/6972518412528</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>30</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>falcon-5879175/6972518412535</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>30</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>falcon-62761/6972518412535</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>30</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>falcon-6213/6978476695645</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>falcon-6212/6944789231566</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>falcon-6645 6901238945351</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>falcon-6210/6974583624646</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>falcon-6215  /  6951229545978</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>falcon-6 1325 /  6944158485286</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>falcon-622224109</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DB-63-27/6260352126511</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>falcon-622224163</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>60</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>falcon-622224166</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>60</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>falcon-622224165</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>falcon-622224162</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>50</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>falcon-62347</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>falcon-62348</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>12</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>falcon-622224149</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>40</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>falcon-333</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>falcon-5580</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>30</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>falcon-5655</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>falcon-5702</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>50</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>falcon-6729</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>60</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>falcon-6730</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>37</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>falcon-6731</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>60</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>6948749001657 / 6948749002487</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>120</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>falcon-61914</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>falcon-20240534/6921092238857</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>60</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>falcon-2024041335</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>30</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>falcon-2024041337</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>60</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>falcon-622222995</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>100</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>falcon-622223031</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>30</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>falcon-622223566</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>falcon-622223567</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>falcon-01X1234612</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>30</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>falcon-987654330</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>100</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6948749001657 / 6948749002487</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>falcon-8522705</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>falcon-622224168</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>11</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>falcon-2025-XP-52</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>falcon-5148  /  6937713905497</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>falcon-6511</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>falcon-62516</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
